--- a/output/dmd_no_combat_planning.xlsx
+++ b/output/dmd_no_combat_planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LR\WLR\Documents-\WangLR\University\Y2S1\URECA\Code\doppelgangerSpotting\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77195AED-9C3E-44CC-98C9-30C1E0F9BA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B98CE0-F7B1-4C47-8060-96BA51ED51D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="90">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -259,16 +259,66 @@
   </si>
   <si>
     <t>Doppel_0.valid</t>
+  </si>
+  <si>
+    <t>Doppel_2.valid</t>
+  </si>
+  <si>
+    <t>Doppel_2.train</t>
+  </si>
+  <si>
+    <t>Doppel_4.train</t>
+  </si>
+  <si>
+    <t>Doppel_4.valid</t>
+  </si>
+  <si>
+    <t>Doppel_6.train</t>
+  </si>
+  <si>
+    <t>Doppel_6.valid</t>
+  </si>
+  <si>
+    <t>Doppel_8.train</t>
+  </si>
+  <si>
+    <t>Doppel_8.valid</t>
+  </si>
+  <si>
+    <t>Doppel_10.train</t>
+  </si>
+  <si>
+    <t>Doppel_10.valid</t>
+  </si>
+  <si>
+    <t>Pos_Con.train</t>
+  </si>
+  <si>
+    <t>Pos_Con.valid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,8 +344,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1704,7 +1756,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1839,165 +1891,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="10.90625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2009,142 +2067,820 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDC460C-3B4F-4B73-95B4-4E9463B1BC97}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
         <v>29</v>
       </c>
     </row>

--- a/output/dmd_no_combat_planning.xlsx
+++ b/output/dmd_no_combat_planning.xlsx
@@ -1,324 +1,260 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LR\WLR\Documents-\WangLR\University\Y2S1\URECA\Code\doppelgangerSpotting\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B98CE0-F7B1-4C47-8060-96BA51ED51D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MetaData" sheetId="1" r:id="rId1"/>
-    <sheet name="DoppelgangerPairs" sheetId="2" r:id="rId2"/>
-    <sheet name="DoppelgangerSamplesH" sheetId="3" r:id="rId3"/>
-    <sheet name="DoppelgangerSamplesP" sheetId="4" r:id="rId4"/>
-    <sheet name="ExperimentPlan" sheetId="5" r:id="rId5"/>
+    <sheet name="MetaData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DoppelgangerPairs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DoppelgangerSamplesH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DoppelgangerSamplesP" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="90">
-  <si>
-    <t>Patient_ID</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>DMD_1_H</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>DMD_2_H</t>
-  </si>
-  <si>
-    <t>DMD_3_H</t>
-  </si>
-  <si>
-    <t>DMD_4_H</t>
-  </si>
-  <si>
-    <t>DMD_5_H</t>
-  </si>
-  <si>
-    <t>DMD_6_H</t>
-  </si>
-  <si>
-    <t>DMD_7_H</t>
-  </si>
-  <si>
-    <t>DMD_8_H</t>
-  </si>
-  <si>
-    <t>DMD_9_H</t>
-  </si>
-  <si>
-    <t>DMD_10_H</t>
-  </si>
-  <si>
-    <t>DMD_11_H</t>
-  </si>
-  <si>
-    <t>DMD_12_H</t>
-  </si>
-  <si>
-    <t>NOR_1_H</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>NOR_2_H</t>
-  </si>
-  <si>
-    <t>NOR_3_H</t>
-  </si>
-  <si>
-    <t>NOR_4_H</t>
-  </si>
-  <si>
-    <t>NOR_5_H</t>
-  </si>
-  <si>
-    <t>NOR_6_H</t>
-  </si>
-  <si>
-    <t>NOR_7_H</t>
-  </si>
-  <si>
-    <t>NOR_8_H</t>
-  </si>
-  <si>
-    <t>NOR_9_H</t>
-  </si>
-  <si>
-    <t>NOR_10_H</t>
-  </si>
-  <si>
-    <t>NOR_11_H</t>
-  </si>
-  <si>
-    <t>NOR_12_H</t>
-  </si>
-  <si>
-    <t>DMD_1_P</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>DMD_2_P</t>
-  </si>
-  <si>
-    <t>DMD_3_P</t>
-  </si>
-  <si>
-    <t>DMD_4_P</t>
-  </si>
-  <si>
-    <t>DMD_5_P</t>
-  </si>
-  <si>
-    <t>DMD_6_P</t>
-  </si>
-  <si>
-    <t>DMD_7_P</t>
-  </si>
-  <si>
-    <t>DMD_8_P</t>
-  </si>
-  <si>
-    <t>DMD_9_P</t>
-  </si>
-  <si>
-    <t>DMD_10_P</t>
-  </si>
-  <si>
-    <t>DMD_11_P</t>
-  </si>
-  <si>
-    <t>DMD_12_P</t>
-  </si>
-  <si>
-    <t>DMD_13_P</t>
-  </si>
-  <si>
-    <t>DMD_14_P</t>
-  </si>
-  <si>
-    <t>DMD_15_P</t>
-  </si>
-  <si>
-    <t>DMD_16_P</t>
-  </si>
-  <si>
-    <t>DMD_17_P</t>
-  </si>
-  <si>
-    <t>DMD_18_P</t>
-  </si>
-  <si>
-    <t>DMD_19_P</t>
-  </si>
-  <si>
-    <t>DMD_20_P</t>
-  </si>
-  <si>
-    <t>DMD_21_P</t>
-  </si>
-  <si>
-    <t>DMD_22_P</t>
-  </si>
-  <si>
-    <t>NOR_1_P</t>
-  </si>
-  <si>
-    <t>NOR_2_P</t>
-  </si>
-  <si>
-    <t>NOR_3_P</t>
-  </si>
-  <si>
-    <t>NOR_4_P</t>
-  </si>
-  <si>
-    <t>NOR_5_P</t>
-  </si>
-  <si>
-    <t>NOR_6_P</t>
-  </si>
-  <si>
-    <t>NOR_7_P</t>
-  </si>
-  <si>
-    <t>NOR_8_P</t>
-  </si>
-  <si>
-    <t>NOR_9_P</t>
-  </si>
-  <si>
-    <t>NOR_10_P</t>
-  </si>
-  <si>
-    <t>NOR_11_P</t>
-  </si>
-  <si>
-    <t>NOR_12_P</t>
-  </si>
-  <si>
-    <t>NOR_13_P</t>
-  </si>
-  <si>
-    <t>NOR_14_P</t>
-  </si>
-  <si>
-    <t>Sample1</t>
-  </si>
-  <si>
-    <t>Sample2</t>
-  </si>
-  <si>
-    <t>PPCC</t>
-  </si>
-  <si>
-    <t>ClassPatient</t>
-  </si>
-  <si>
-    <t>DoppelgangerLabel</t>
-  </si>
-  <si>
-    <t>Same Class
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t xml:space="preserve">Patient_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_1_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_2_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_3_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_4_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_5_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_6_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_7_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_8_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_9_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_10_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_11_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_12_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_1_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_2_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_3_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_4_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_5_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_6_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_7_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_8_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_9_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_10_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_11_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_12_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_1_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_2_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_3_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_4_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_5_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_6_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_7_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_8_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_9_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_10_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_11_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_12_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_13_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_14_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_15_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_16_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_17_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_18_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_19_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_20_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_21_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_22_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_1_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_2_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_3_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_4_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_5_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_6_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_7_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_8_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_9_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_10_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_11_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_12_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_13_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_14_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClassPatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoppelgangerLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same Class
  Different Patient</t>
   </si>
   <si>
-    <t>Doppelganger</t>
-  </si>
-  <si>
-    <t>Doppelganger Samples</t>
-  </si>
-  <si>
-    <t>Non-Doppelganger Samples</t>
-  </si>
-  <si>
-    <t>Doppel_0.train</t>
-  </si>
-  <si>
-    <t>Doppel_0.valid</t>
-  </si>
-  <si>
-    <t>Doppel_2.valid</t>
-  </si>
-  <si>
-    <t>Doppel_2.train</t>
-  </si>
-  <si>
-    <t>Doppel_4.train</t>
-  </si>
-  <si>
-    <t>Doppel_4.valid</t>
-  </si>
-  <si>
-    <t>Doppel_6.train</t>
-  </si>
-  <si>
-    <t>Doppel_6.valid</t>
-  </si>
-  <si>
-    <t>Doppel_8.train</t>
-  </si>
-  <si>
-    <t>Doppel_8.valid</t>
-  </si>
-  <si>
-    <t>Doppel_10.train</t>
-  </si>
-  <si>
-    <t>Doppel_10.valid</t>
-  </si>
-  <si>
-    <t>Pos_Con.train</t>
-  </si>
-  <si>
-    <t>Pos_Con.valid</t>
+    <t xml:space="preserve">Doppelganger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doppelganger Samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Doppelganger Samples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,24 +280,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -643,16 +568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -674,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -685,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -696,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -707,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -718,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -729,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -740,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -751,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -762,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -773,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -784,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -795,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -806,7 +729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -817,7 +740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -828,7 +751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -839,7 +762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -850,7 +773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -861,7 +784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -872,7 +795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -883,7 +806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -894,7 +817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -905,7 +828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -916,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -927,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -938,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -949,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -960,7 +883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -971,7 +894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -982,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -993,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1004,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1015,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1026,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1037,7 +960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1048,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1059,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1070,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1081,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1092,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1114,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1125,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1136,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1147,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1158,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1169,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1180,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="49">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1191,7 +1114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="50">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1202,7 +1125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="51">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1213,7 +1136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="52">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1224,7 +1147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1235,7 +1158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="54">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1246,7 +1169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="55">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1257,7 +1180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="56">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1268,7 +1191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="57">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1279,7 +1202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="58">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1290,7 +1213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="59">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1301,7 +1224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1312,7 +1235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="61">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1325,19 +1248,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1354,15 +1277,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2">
-        <v>0.58733505052374702</v>
+      <c r="C2" t="n">
+        <v>0.587335050523747</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -1371,14 +1294,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.584295174049417</v>
       </c>
       <c r="D3" t="s">
@@ -1388,15 +1311,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4">
-        <v>0.58577753736699001</v>
+      <c r="C4" t="n">
+        <v>0.58577753736699</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -1405,15 +1328,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="C5">
-        <v>0.58625420519859806</v>
+      <c r="C5" t="n">
+        <v>0.586254205198598</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
@@ -1422,15 +1345,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
-      <c r="C6">
-        <v>0.58464988526295003</v>
+      <c r="C6" t="n">
+        <v>0.58464988526295</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
@@ -1439,15 +1362,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7">
-        <v>0.58780088595514601</v>
+      <c r="C7" t="n">
+        <v>0.587800885955146</v>
       </c>
       <c r="D7" t="s">
         <v>72</v>
@@ -1456,15 +1379,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8">
-        <v>0.59140810711737501</v>
+      <c r="C8" t="n">
+        <v>0.591408107117375</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
@@ -1473,14 +1396,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.58395015797853</v>
       </c>
       <c r="D9" t="s">
@@ -1490,15 +1413,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10">
-        <v>0.58426218727244295</v>
+      <c r="C10" t="n">
+        <v>0.584262187272443</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
@@ -1507,15 +1430,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11">
-        <v>0.58608249437825699</v>
+      <c r="C11" t="n">
+        <v>0.586082494378257</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -1524,15 +1447,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12">
-        <v>0.59058170821982103</v>
+      <c r="C12" t="n">
+        <v>0.590581708219821</v>
       </c>
       <c r="D12" t="s">
         <v>72</v>
@@ -1541,15 +1464,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13">
-        <v>0.58971477532814698</v>
+      <c r="C13" t="n">
+        <v>0.589714775328147</v>
       </c>
       <c r="D13" t="s">
         <v>72</v>
@@ -1558,15 +1481,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C14">
-        <v>0.58995726241415902</v>
+      <c r="C14" t="n">
+        <v>0.589957262414159</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
@@ -1575,15 +1498,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15">
-        <v>0.59149604843072601</v>
+      <c r="C15" t="n">
+        <v>0.591496048430726</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
@@ -1592,15 +1515,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16">
-        <v>0.58771820237774397</v>
+      <c r="C16" t="n">
+        <v>0.587718202377744</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
@@ -1609,15 +1532,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17">
-        <v>0.58985463131966698</v>
+      <c r="C17" t="n">
+        <v>0.589854631319667</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -1626,15 +1549,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="C18">
-        <v>0.58799837464327198</v>
+      <c r="C18" t="n">
+        <v>0.587998374643272</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
@@ -1643,15 +1566,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="19">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="C19">
-        <v>0.58641356166448999</v>
+      <c r="C19" t="n">
+        <v>0.58641356166449</v>
       </c>
       <c r="D19" t="s">
         <v>72</v>
@@ -1660,15 +1583,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20">
-        <v>0.58388098303550595</v>
+      <c r="C20" t="n">
+        <v>0.583880983035506</v>
       </c>
       <c r="D20" t="s">
         <v>72</v>
@@ -1677,15 +1600,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C21">
-        <v>0.58694475008271396</v>
+      <c r="C21" t="n">
+        <v>0.586944750082714</v>
       </c>
       <c r="D21" t="s">
         <v>72</v>
@@ -1694,15 +1617,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="22">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="C22">
-        <v>0.59326781633095205</v>
+      <c r="C22" t="n">
+        <v>0.593267816330952</v>
       </c>
       <c r="D22" t="s">
         <v>72</v>
@@ -1711,15 +1634,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C23">
-        <v>0.59081142970040701</v>
+      <c r="C23" t="n">
+        <v>0.590811429700407</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -1728,15 +1651,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="24">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="C24">
-        <v>0.58853441741521695</v>
+      <c r="C24" t="n">
+        <v>0.588534417415217</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -1747,21 +1670,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1769,7 +1690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1777,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1793,7 +1714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1801,1090 +1722,282 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6">
+      <c r="A6"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7">
+      <c r="A7"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8">
+      <c r="A8"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9">
+      <c r="A9"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10">
+      <c r="A10"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11">
+      <c r="A11"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12">
+      <c r="A12"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13">
+      <c r="A13"/>
       <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14">
+      <c r="A14"/>
       <c r="B14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15">
+      <c r="A15"/>
       <c r="B15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16">
+      <c r="A16"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="17">
+      <c r="A17"/>
       <c r="B17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="18">
+      <c r="A18"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="19">
+      <c r="A19"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="20">
+      <c r="A20"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="21">
+      <c r="A21"/>
       <c r="B21" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="10.90625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="2" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="2" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A5" s="2" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="2" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A7" s="2" t="s">
+    <row r="7">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" s="2" t="s">
+    <row r="8">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A9" s="2" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A10" s="2" t="s">
+    <row r="10">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A11" s="2" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A12" s="2" t="s">
+    <row r="12">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A13" s="2" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A14" s="2" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A15" s="2" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A16" s="2" t="s">
+    <row r="16">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B17" s="1" t="s">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B18" s="1" t="s">
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B19" s="1" t="s">
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B20" s="1" t="s">
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B21" s="1" t="s">
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B22" s="1" t="s">
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDC460C-3B4F-4B73-95B4-4E9463B1BC97}">
-  <dimension ref="A1:N25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>